--- a/Backlog/Backlog - Projeto-Individual.xlsx
+++ b/Backlog/Backlog - Projeto-Individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opera\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opera\Documents\Fish-Web\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E60F61D-9C7E-43DC-8F9B-6A00663782D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE1F9BA-B0D6-43D7-880F-8D33D0207815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ESSENCIAL</t>
   </si>
   <si>
-    <t>INCOMPLETO</t>
-  </si>
-  <si>
     <t>Criar a backlog do Projeto</t>
   </si>
   <si>
@@ -131,12 +128,6 @@
     <t>Criar o Script do banco de dados com as tabelas</t>
   </si>
   <si>
-    <t>Usar cálculos matemáticos</t>
-  </si>
-  <si>
-    <t>Usar cálculos para validações e implementações de váriaveis no projeto</t>
-  </si>
-  <si>
     <t>Instalar o MySQL na VM</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>Falta</t>
   </si>
   <si>
-    <t>ANDAMENTO</t>
-  </si>
-  <si>
     <t>REQUISITOS BACKLOG - PROJETO INDIVIDUAL</t>
   </si>
   <si>
@@ -198,6 +186,9 @@
   </si>
   <si>
     <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t>19/112025</t>
   </si>
 </sst>
 </file>
@@ -718,31 +709,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,6 +731,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,7 +1747,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123092</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2102,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2105,7 @@
     <col min="2" max="2" width="76.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2124,16 +2115,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -2162,30 +2153,30 @@
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>35</v>
+      <c r="A3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="12">
         <v>45971</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="16">
         <v>13</v>
@@ -2194,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3" s="21">
         <v>157</v>
@@ -2204,23 +2195,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12">
         <v>45971</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>8</v>
@@ -2229,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -2240,21 +2231,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45981</v>
+      </c>
       <c r="F5" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="16">
         <v>21</v>
@@ -2268,23 +2261,23 @@
       <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E6" s="14">
-        <v>45971</v>
+        <v>45986</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="16">
         <v>21</v>
@@ -2298,21 +2291,23 @@
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45977</v>
+      </c>
       <c r="F7" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="16">
         <v>8</v>
@@ -2326,21 +2321,23 @@
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45977</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="16">
         <v>8</v>
@@ -2354,23 +2351,23 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="12">
         <v>45971</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -2383,24 +2380,24 @@
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>12</v>
+      <c r="D10" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="12">
         <v>45971</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6">
         <v>5</v>
@@ -2413,22 +2410,24 @@
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="12">
+        <v>45980</v>
+      </c>
       <c r="F11" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="16">
         <v>13</v>
@@ -2442,21 +2441,23 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45980</v>
+      </c>
       <c r="F12" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="16">
         <v>13</v>
@@ -2470,21 +2471,23 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="16">
         <v>21</v>
@@ -2498,24 +2501,26 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45981</v>
+      </c>
       <c r="F14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14" s="16">
         <v>2</v>
@@ -2525,108 +2530,80 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>34</v>
+    <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="38">
+        <v>45971</v>
+      </c>
       <c r="F15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="16">
-        <v>13</v>
-      </c>
-      <c r="H15" s="16">
+        <v>37</v>
+      </c>
+      <c r="G15" s="37">
+        <v>21</v>
+      </c>
+      <c r="H15" s="37">
         <v>2</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="43">
-        <v>45971</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="42">
-        <v>21</v>
-      </c>
-      <c r="H16" s="42">
-        <v>2</v>
-      </c>
+      <c r="F16" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="4:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="31" t="s">
+      <c r="D17" s="11"/>
+      <c r="F17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="4:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-      <c r="F18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="4:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="4:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="4:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="29"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D16">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"COMPLETO"</formula>
     </cfRule>
@@ -2637,7 +2614,7 @@
       <formula>"INCOMPLETO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:H2 C2:C16">
+  <conditionalFormatting sqref="D2:H2 C2:C15">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="IMPORTANTE">
       <formula>NOT(ISERROR(SEARCH("IMPORTANTE",C2)))</formula>
     </cfRule>
